--- a/servers/data/3observed_gamble_sequence.xlsx
+++ b/servers/data/3observed_gamble_sequence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/samba/Office/Users/hySeon/Behavioral_contagion/web_study/web 개발 참고자료/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9A54BD-C1CB-0F43-A66F-CF101A8F2988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED991B19-E98B-D049-95C2-662B21947B7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16440" activeTab="3" xr2:uid="{C3B9D836-3C27-6348-A872-3F8D8D3B2A6F}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16440" xr2:uid="{C3B9D836-3C27-6348-A872-3F8D8D3B2A6F}"/>
   </bookViews>
   <sheets>
     <sheet name="random 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="8">
   <si>
     <t>'trial index'</t>
   </si>
@@ -60,10 +60,6 @@
   </si>
   <si>
     <t>NaN</t>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -429,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEE6ADB-2CBA-8042-81F0-3FE182AB7687}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -469,17 +465,17 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>8</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>0.75</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -496,7 +492,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -505,7 +501,7 @@
         <v>90</v>
       </c>
       <c r="E3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -522,10 +518,10 @@
         <v>90</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D4">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -565,16 +561,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -591,10 +587,10 @@
         <v>48</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -611,16 +607,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -637,10 +633,10 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -660,10 +656,10 @@
         <v>90</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -680,13 +676,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C11">
         <v>0.5</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -703,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -712,7 +708,7 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -726,13 +722,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>0.75</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -821,10 +817,10 @@
         <v>90</v>
       </c>
       <c r="C17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -841,7 +837,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -850,7 +846,7 @@
         <v>25</v>
       </c>
       <c r="E18">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -864,13 +860,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -890,10 +886,10 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -910,13 +906,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>0.75</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -925,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -956,13 +952,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C23">
         <v>0.75</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -982,10 +978,10 @@
         <v>90</v>
       </c>
       <c r="C24">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1002,16 +998,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1028,10 +1024,10 @@
         <v>48</v>
       </c>
       <c r="C26">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1048,7 +1044,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1057,7 +1053,7 @@
         <v>90</v>
       </c>
       <c r="E27">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1071,13 +1067,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C28">
         <v>0.5</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1163,7 +1159,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1172,7 +1168,7 @@
         <v>90</v>
       </c>
       <c r="E32">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -1186,7 +1182,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1195,7 +1191,7 @@
         <v>25</v>
       </c>
       <c r="E33">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -1232,16 +1228,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E35">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -1255,7 +1251,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1264,7 +1260,7 @@
         <v>90</v>
       </c>
       <c r="E36">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -1301,16 +1297,16 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E38">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -1347,13 +1343,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E40">
         <v>0.75</v>
@@ -1370,7 +1366,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1379,7 +1375,7 @@
         <v>25</v>
       </c>
       <c r="E41">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -1416,13 +1412,13 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="E43">
         <v>0.5</v>
@@ -1439,7 +1435,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1448,7 +1444,7 @@
         <v>48</v>
       </c>
       <c r="E44">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -1462,7 +1458,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1471,7 +1467,7 @@
         <v>90</v>
       </c>
       <c r="E45">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -1485,13 +1481,13 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E46">
         <v>0.75</v>
@@ -1531,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1540,7 +1536,7 @@
         <v>25</v>
       </c>
       <c r="E48">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1554,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="B49">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1577,13 +1573,13 @@
         <v>4</v>
       </c>
       <c r="B50">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E50">
         <v>0.5</v>
@@ -1600,13 +1596,13 @@
         <v>5</v>
       </c>
       <c r="B51">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C51">
         <v>0.5</v>
       </c>
       <c r="D51">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1652,7 +1648,7 @@
         <v>0.25</v>
       </c>
       <c r="D53">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1695,10 +1691,10 @@
         <v>25</v>
       </c>
       <c r="C55">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1715,16 +1711,16 @@
         <v>10</v>
       </c>
       <c r="B56">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="E56">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -1741,10 +1737,10 @@
         <v>90</v>
       </c>
       <c r="C57">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D57">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1761,13 +1757,13 @@
         <v>12</v>
       </c>
       <c r="B58">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C58">
         <v>0.25</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1784,13 +1780,13 @@
         <v>13</v>
       </c>
       <c r="B59">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C59">
         <v>0.5</v>
       </c>
       <c r="D59">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -1810,10 +1806,10 @@
         <v>48</v>
       </c>
       <c r="C60">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D60">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -1830,13 +1826,13 @@
         <v>15</v>
       </c>
       <c r="B61">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C61">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D61">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1853,13 +1849,13 @@
         <v>16</v>
       </c>
       <c r="B62">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C62">
         <v>0.5</v>
       </c>
       <c r="D62">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1879,10 +1875,10 @@
         <v>25</v>
       </c>
       <c r="C63">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D63">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -1899,7 +1895,7 @@
         <v>18</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1908,7 +1904,7 @@
         <v>48</v>
       </c>
       <c r="E64">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1922,13 +1918,13 @@
         <v>19</v>
       </c>
       <c r="B65">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="E65">
         <v>0.5</v>
@@ -1937,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1945,7 +1941,7 @@
         <v>20</v>
       </c>
       <c r="B66">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1954,7 +1950,7 @@
         <v>25</v>
       </c>
       <c r="E66">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -1994,10 +1990,10 @@
         <v>90</v>
       </c>
       <c r="C68">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D68">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2014,7 +2010,7 @@
         <v>23</v>
       </c>
       <c r="B69">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2023,7 +2019,7 @@
         <v>48</v>
       </c>
       <c r="E69">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2037,7 +2033,7 @@
         <v>24</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2046,7 +2042,7 @@
         <v>48</v>
       </c>
       <c r="E70">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -2063,10 +2059,10 @@
         <v>25</v>
       </c>
       <c r="C71">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D71">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -2083,7 +2079,7 @@
         <v>26</v>
       </c>
       <c r="B72">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2092,7 +2088,7 @@
         <v>48</v>
       </c>
       <c r="E72">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -2106,13 +2102,13 @@
         <v>27</v>
       </c>
       <c r="B73">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E73">
         <v>0.5</v>
@@ -2121,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2198,7 +2194,7 @@
         <v>31</v>
       </c>
       <c r="B77">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2207,7 +2203,7 @@
         <v>25</v>
       </c>
       <c r="E77">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2221,7 +2217,7 @@
         <v>32</v>
       </c>
       <c r="B78">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -2230,7 +2226,7 @@
         <v>90</v>
       </c>
       <c r="E78">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -2290,13 +2286,13 @@
         <v>35</v>
       </c>
       <c r="B81">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C81">
         <v>0.25</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -2316,10 +2312,10 @@
         <v>25</v>
       </c>
       <c r="C82">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D82">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -2362,10 +2358,10 @@
         <v>25</v>
       </c>
       <c r="C84">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -2385,10 +2381,10 @@
         <v>48</v>
       </c>
       <c r="C85">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D85">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -2428,13 +2424,13 @@
         <v>41</v>
       </c>
       <c r="B87">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C87">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D87">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -2474,7 +2470,7 @@
         <v>43</v>
       </c>
       <c r="B89">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -2497,7 +2493,7 @@
         <v>44</v>
       </c>
       <c r="B90">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -2506,13 +2502,13 @@
         <v>25</v>
       </c>
       <c r="E90">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2520,13 +2516,13 @@
         <v>45</v>
       </c>
       <c r="B91">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C91">
         <v>0.25</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -2592,13 +2588,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <v>0.5</v>
@@ -2618,10 +2614,10 @@
         <v>90</v>
       </c>
       <c r="C3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2661,13 +2657,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2687,10 +2683,10 @@
         <v>48</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2753,7 +2749,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2762,7 +2758,7 @@
         <v>90</v>
       </c>
       <c r="E9">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2776,13 +2772,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0.75</v>
@@ -2822,13 +2818,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>0.75</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2845,7 +2841,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2854,7 +2850,7 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2871,10 +2867,10 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2891,13 +2887,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2914,7 +2910,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2923,7 +2919,7 @@
         <v>90</v>
       </c>
       <c r="E16">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2937,13 +2933,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>0.75</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2952,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2960,13 +2956,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2983,7 +2979,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2992,7 +2988,7 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -3029,13 +3025,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="E21">
         <v>0.5</v>
@@ -3055,10 +3051,10 @@
         <v>90</v>
       </c>
       <c r="C22">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D22">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3075,13 +3071,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C23">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3101,10 +3097,10 @@
         <v>90</v>
       </c>
       <c r="C24">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3124,10 +3120,10 @@
         <v>48</v>
       </c>
       <c r="C25">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3167,7 +3163,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3176,7 +3172,7 @@
         <v>25</v>
       </c>
       <c r="E27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -3213,7 +3209,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3222,7 +3218,7 @@
         <v>90</v>
       </c>
       <c r="E29">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -3236,13 +3232,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E30">
         <v>0.75</v>
@@ -3282,13 +3278,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C32">
         <v>0.75</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3305,7 +3301,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3314,7 +3310,7 @@
         <v>48</v>
       </c>
       <c r="E33">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -3328,16 +3324,16 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E34">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -3377,10 +3373,10 @@
         <v>90</v>
       </c>
       <c r="C36">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3397,13 +3393,13 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C37">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3420,13 +3416,13 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E38">
         <v>0.75</v>
@@ -3443,13 +3439,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C39">
         <v>0.5</v>
       </c>
       <c r="D39">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3489,7 +3485,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3498,7 +3494,7 @@
         <v>90</v>
       </c>
       <c r="E41">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -3538,10 +3534,10 @@
         <v>25</v>
       </c>
       <c r="C43">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D43">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3561,10 +3557,10 @@
         <v>25</v>
       </c>
       <c r="C44">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3581,7 +3577,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3590,7 +3586,7 @@
         <v>90</v>
       </c>
       <c r="E45">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -3627,7 +3623,7 @@
         <v>1</v>
       </c>
       <c r="B47">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3636,7 +3632,7 @@
         <v>25</v>
       </c>
       <c r="E47">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -3696,13 +3692,13 @@
         <v>4</v>
       </c>
       <c r="B50">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E50">
         <v>0.5</v>
@@ -3711,7 +3707,7 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3719,16 +3715,16 @@
         <v>5</v>
       </c>
       <c r="B51">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="E51">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -3791,10 +3787,10 @@
         <v>48</v>
       </c>
       <c r="C54">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D54">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3811,7 +3807,7 @@
         <v>9</v>
       </c>
       <c r="B55">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3820,7 +3816,7 @@
         <v>90</v>
       </c>
       <c r="E55">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -3840,7 +3836,7 @@
         <v>0.25</v>
       </c>
       <c r="D56">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3932,7 +3928,7 @@
         <v>0.25</v>
       </c>
       <c r="D60">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3952,10 +3948,10 @@
         <v>48</v>
       </c>
       <c r="C61">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D61">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3972,16 +3968,16 @@
         <v>16</v>
       </c>
       <c r="B62">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="E62">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3995,7 +3991,7 @@
         <v>17</v>
       </c>
       <c r="B63">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4004,13 +4000,13 @@
         <v>25</v>
       </c>
       <c r="E63">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -4041,7 +4037,7 @@
         <v>19</v>
       </c>
       <c r="B65">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4050,7 +4046,7 @@
         <v>48</v>
       </c>
       <c r="E65">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -4067,10 +4063,10 @@
         <v>25</v>
       </c>
       <c r="C66">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4110,13 +4106,13 @@
         <v>22</v>
       </c>
       <c r="B68">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C68">
         <v>0.5</v>
       </c>
       <c r="D68">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4136,10 +4132,10 @@
         <v>25</v>
       </c>
       <c r="C69">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D69">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4156,13 +4152,13 @@
         <v>24</v>
       </c>
       <c r="B70">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C70">
         <v>0.5</v>
       </c>
       <c r="D70">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4179,7 +4175,7 @@
         <v>25</v>
       </c>
       <c r="B71">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4188,7 +4184,7 @@
         <v>25</v>
       </c>
       <c r="E71">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F71">
         <v>2</v>
@@ -4202,13 +4198,13 @@
         <v>26</v>
       </c>
       <c r="B72">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E72">
         <v>0.5</v>
@@ -4225,7 +4221,7 @@
         <v>27</v>
       </c>
       <c r="B73">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4234,7 +4230,7 @@
         <v>25</v>
       </c>
       <c r="E73">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -4271,13 +4267,13 @@
         <v>29</v>
       </c>
       <c r="B75">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E75">
         <v>0.5</v>
@@ -4294,7 +4290,7 @@
         <v>30</v>
       </c>
       <c r="B76">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4303,7 +4299,7 @@
         <v>48</v>
       </c>
       <c r="E76">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -4320,10 +4316,10 @@
         <v>25</v>
       </c>
       <c r="C77">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D77">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4340,7 +4336,7 @@
         <v>32</v>
       </c>
       <c r="B78">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4349,7 +4345,7 @@
         <v>48</v>
       </c>
       <c r="E78">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -4386,7 +4382,7 @@
         <v>34</v>
       </c>
       <c r="B80">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4395,7 +4391,7 @@
         <v>90</v>
       </c>
       <c r="E80">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -4409,13 +4405,13 @@
         <v>35</v>
       </c>
       <c r="B81">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C81">
         <v>0.25</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4432,7 +4428,7 @@
         <v>36</v>
       </c>
       <c r="B82">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4441,7 +4437,7 @@
         <v>90</v>
       </c>
       <c r="E82">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -4455,7 +4451,7 @@
         <v>37</v>
       </c>
       <c r="B83">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4481,10 +4477,10 @@
         <v>25</v>
       </c>
       <c r="C84">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D84">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -4501,7 +4497,7 @@
         <v>39</v>
       </c>
       <c r="B85">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4510,7 +4506,7 @@
         <v>48</v>
       </c>
       <c r="E85">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F85">
         <v>2</v>
@@ -4524,13 +4520,13 @@
         <v>40</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E86">
         <v>0.25</v>
@@ -4547,16 +4543,16 @@
         <v>41</v>
       </c>
       <c r="B87">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="E87">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -4573,10 +4569,10 @@
         <v>25</v>
       </c>
       <c r="C88">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D88">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -4616,13 +4612,13 @@
         <v>44</v>
       </c>
       <c r="B90">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="E90">
         <v>0.5</v>
@@ -4631,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4639,13 +4635,13 @@
         <v>45</v>
       </c>
       <c r="B91">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C91">
         <v>0.25</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -4714,10 +4710,10 @@
         <v>90</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D2">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -4737,10 +4733,10 @@
         <v>90</v>
       </c>
       <c r="C3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -4757,7 +4753,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4766,7 +4762,7 @@
         <v>48</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4826,7 +4822,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4835,7 +4831,7 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4849,16 +4845,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4872,16 +4868,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E9">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4918,7 +4914,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4927,7 +4923,7 @@
         <v>90</v>
       </c>
       <c r="E11">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4964,13 +4960,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>0.75</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4987,13 +4983,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="E14">
         <v>0.5</v>
@@ -5010,13 +5006,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>0.75</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -5036,10 +5032,10 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -5056,13 +5052,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -5079,13 +5075,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -5151,10 +5147,10 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -5171,13 +5167,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="E22">
         <v>0.5</v>
@@ -5220,10 +5216,10 @@
         <v>90</v>
       </c>
       <c r="C24">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -5266,10 +5262,10 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -5289,10 +5285,10 @@
         <v>90</v>
       </c>
       <c r="C27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -5309,13 +5305,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E28">
         <v>0.75</v>
@@ -5335,10 +5331,10 @@
         <v>48</v>
       </c>
       <c r="C29">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -5358,10 +5354,10 @@
         <v>90</v>
       </c>
       <c r="C30">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D30">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -5378,13 +5374,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>0.75</v>
@@ -5401,13 +5397,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C32">
         <v>0.5</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -5424,7 +5420,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -5433,7 +5429,7 @@
         <v>90</v>
       </c>
       <c r="E33">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -5450,10 +5446,10 @@
         <v>25</v>
       </c>
       <c r="C34">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -5496,10 +5492,10 @@
         <v>48</v>
       </c>
       <c r="C36">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -5519,10 +5515,10 @@
         <v>90</v>
       </c>
       <c r="C37">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D37">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -5562,13 +5558,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C39">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -5585,13 +5581,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E40">
         <v>0.75</v>
@@ -5631,13 +5627,13 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E42">
         <v>0.75</v>
@@ -5646,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5657,10 +5653,10 @@
         <v>90</v>
       </c>
       <c r="C43">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D43">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -5680,10 +5676,10 @@
         <v>25</v>
       </c>
       <c r="C44">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D44">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -5700,16 +5696,16 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E45">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -5746,13 +5742,13 @@
         <v>1</v>
       </c>
       <c r="B47">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C47">
         <v>0.5</v>
       </c>
       <c r="D47">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -5792,13 +5788,13 @@
         <v>3</v>
       </c>
       <c r="B49">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C49">
         <v>0.5</v>
       </c>
       <c r="D49">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -5807,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5818,10 +5814,10 @@
         <v>25</v>
       </c>
       <c r="C50">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -5838,7 +5834,7 @@
         <v>5</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -5847,7 +5843,7 @@
         <v>25</v>
       </c>
       <c r="E51">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -5861,7 +5857,7 @@
         <v>6</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5870,7 +5866,7 @@
         <v>48</v>
       </c>
       <c r="E52">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -5887,10 +5883,10 @@
         <v>25</v>
       </c>
       <c r="C53">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -5910,10 +5906,10 @@
         <v>48</v>
       </c>
       <c r="C54">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D54">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -5956,10 +5952,10 @@
         <v>48</v>
       </c>
       <c r="C56">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D56">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -5999,7 +5995,7 @@
         <v>12</v>
       </c>
       <c r="B58">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -6008,7 +6004,7 @@
         <v>90</v>
       </c>
       <c r="E58">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -6022,7 +6018,7 @@
         <v>13</v>
       </c>
       <c r="B59">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -6031,7 +6027,7 @@
         <v>25</v>
       </c>
       <c r="E59">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -6045,7 +6041,7 @@
         <v>14</v>
       </c>
       <c r="B60">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -6091,13 +6087,13 @@
         <v>16</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E62">
         <v>0.25</v>
@@ -6114,7 +6110,7 @@
         <v>17</v>
       </c>
       <c r="B63">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -6137,13 +6133,13 @@
         <v>18</v>
       </c>
       <c r="B64">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="E64">
         <v>0.5</v>
@@ -6152,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -6160,13 +6156,13 @@
         <v>19</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E65">
         <v>0.25</v>
@@ -6183,7 +6179,7 @@
         <v>20</v>
       </c>
       <c r="B66">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -6192,7 +6188,7 @@
         <v>90</v>
       </c>
       <c r="E66">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -6206,7 +6202,7 @@
         <v>21</v>
       </c>
       <c r="B67">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6215,7 +6211,7 @@
         <v>25</v>
       </c>
       <c r="E67">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -6232,10 +6228,10 @@
         <v>25</v>
       </c>
       <c r="C68">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D68">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -6298,16 +6294,16 @@
         <v>25</v>
       </c>
       <c r="B71">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="E71">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F71">
         <v>2</v>
@@ -6321,7 +6317,7 @@
         <v>26</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6330,7 +6326,7 @@
         <v>48</v>
       </c>
       <c r="E72">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -6413,7 +6409,7 @@
         <v>30</v>
       </c>
       <c r="B76">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -6422,7 +6418,7 @@
         <v>25</v>
       </c>
       <c r="E76">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -6436,7 +6432,7 @@
         <v>31</v>
       </c>
       <c r="B77">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -6445,7 +6441,7 @@
         <v>25</v>
       </c>
       <c r="E77">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -6528,13 +6524,13 @@
         <v>35</v>
       </c>
       <c r="B81">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E81">
         <v>0.5</v>
@@ -6551,13 +6547,13 @@
         <v>36</v>
       </c>
       <c r="B82">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C82">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D82">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -6574,13 +6570,13 @@
         <v>37</v>
       </c>
       <c r="B83">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C83">
         <v>0.5</v>
       </c>
       <c r="D83">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -6600,10 +6596,10 @@
         <v>48</v>
       </c>
       <c r="C84">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D84">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -6620,7 +6616,7 @@
         <v>39</v>
       </c>
       <c r="B85">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -6629,7 +6625,7 @@
         <v>90</v>
       </c>
       <c r="E85">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -6643,7 +6639,7 @@
         <v>40</v>
       </c>
       <c r="B86">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -6652,7 +6648,7 @@
         <v>48</v>
       </c>
       <c r="E86">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -6666,13 +6662,13 @@
         <v>41</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E87">
         <v>0.25</v>
@@ -6692,10 +6688,10 @@
         <v>25</v>
       </c>
       <c r="C88">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D88">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -6704,7 +6700,7 @@
         <v>1</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -6712,13 +6708,13 @@
         <v>43</v>
       </c>
       <c r="B89">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C89">
         <v>0.5</v>
       </c>
       <c r="D89">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -6735,13 +6731,13 @@
         <v>44</v>
       </c>
       <c r="B90">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C90">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D90">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -6764,7 +6760,7 @@
         <v>0.25</v>
       </c>
       <c r="D91">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -6786,8 +6782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9194DB48-F073-B54B-90CC-84FB8F474AA6}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -6833,10 +6829,10 @@
         <v>90</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D2">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -6856,10 +6852,10 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -6902,10 +6898,10 @@
         <v>48</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -6922,13 +6918,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>0.75</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6945,13 +6941,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <v>0.5</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -6968,13 +6964,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>0.75</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -7060,7 +7056,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -7069,7 +7065,7 @@
         <v>90</v>
       </c>
       <c r="E12">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -7083,13 +7079,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C13">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -7106,7 +7102,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -7115,7 +7111,7 @@
         <v>90</v>
       </c>
       <c r="E14">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -7132,10 +7128,10 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -7152,16 +7148,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -7178,10 +7174,10 @@
         <v>90</v>
       </c>
       <c r="C17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -7201,10 +7197,10 @@
         <v>48</v>
       </c>
       <c r="C18">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -7221,7 +7217,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -7230,7 +7226,7 @@
         <v>90</v>
       </c>
       <c r="E19">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -7244,13 +7240,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>0.75</v>
@@ -7290,7 +7286,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -7299,7 +7295,7 @@
         <v>25</v>
       </c>
       <c r="E22">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -7316,10 +7312,10 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -7336,13 +7332,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C24">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -7359,7 +7355,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -7368,7 +7364,7 @@
         <v>90</v>
       </c>
       <c r="E25">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -7382,13 +7378,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C26">
         <v>0.5</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -7428,13 +7424,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C28">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -7474,13 +7470,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E30">
         <v>0.75</v>
@@ -7543,13 +7539,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E33">
         <v>0.75</v>
@@ -7558,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -7569,10 +7565,10 @@
         <v>48</v>
       </c>
       <c r="C34">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D34">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -7638,10 +7634,10 @@
         <v>90</v>
       </c>
       <c r="C37">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -7658,16 +7654,16 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E38">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -7681,13 +7677,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C39">
         <v>0.5</v>
       </c>
       <c r="D39">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -7704,13 +7700,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E40">
         <v>0.75</v>
@@ -7727,7 +7723,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -7736,7 +7732,7 @@
         <v>25</v>
       </c>
       <c r="E41">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -7750,7 +7746,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -7759,7 +7755,7 @@
         <v>90</v>
       </c>
       <c r="E42">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -7773,7 +7769,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -7782,7 +7778,7 @@
         <v>90</v>
       </c>
       <c r="E43">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -7796,7 +7792,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -7805,7 +7801,7 @@
         <v>25</v>
       </c>
       <c r="E44">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -7842,16 +7838,16 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E46">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -7865,7 +7861,7 @@
         <v>1</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -7874,7 +7870,7 @@
         <v>48</v>
       </c>
       <c r="E47">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -7894,7 +7890,7 @@
         <v>0.25</v>
       </c>
       <c r="D48">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -7914,10 +7910,10 @@
         <v>25</v>
       </c>
       <c r="C49">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -7934,13 +7930,13 @@
         <v>4</v>
       </c>
       <c r="B50">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C50">
         <v>0.5</v>
       </c>
       <c r="D50">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -7949,7 +7945,7 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -7960,10 +7956,10 @@
         <v>25</v>
       </c>
       <c r="C51">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -7983,10 +7979,10 @@
         <v>48</v>
       </c>
       <c r="C52">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D52">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -8026,7 +8022,7 @@
         <v>8</v>
       </c>
       <c r="B54">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -8035,7 +8031,7 @@
         <v>25</v>
       </c>
       <c r="E54">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -8072,7 +8068,7 @@
         <v>10</v>
       </c>
       <c r="B56">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -8081,7 +8077,7 @@
         <v>90</v>
       </c>
       <c r="E56">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -8095,13 +8091,13 @@
         <v>11</v>
       </c>
       <c r="B57">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E57">
         <v>0.5</v>
@@ -8118,7 +8114,7 @@
         <v>12</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -8127,7 +8123,7 @@
         <v>48</v>
       </c>
       <c r="E58">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -8141,13 +8137,13 @@
         <v>13</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E59">
         <v>0.25</v>
@@ -8164,7 +8160,7 @@
         <v>14</v>
       </c>
       <c r="B60">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -8173,7 +8169,7 @@
         <v>90</v>
       </c>
       <c r="E60">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -8187,13 +8183,13 @@
         <v>15</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E61">
         <v>0.25</v>
@@ -8233,7 +8229,7 @@
         <v>17</v>
       </c>
       <c r="B63">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -8242,7 +8238,7 @@
         <v>25</v>
       </c>
       <c r="E63">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -8256,13 +8252,13 @@
         <v>18</v>
       </c>
       <c r="B64">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C64">
         <v>0.25</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -8279,13 +8275,13 @@
         <v>19</v>
       </c>
       <c r="B65">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C65">
         <v>0.5</v>
       </c>
       <c r="D65">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -8294,7 +8290,7 @@
         <v>1</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -8348,13 +8344,13 @@
         <v>22</v>
       </c>
       <c r="B68">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C68">
         <v>0.5</v>
       </c>
       <c r="D68">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -8374,10 +8370,10 @@
         <v>90</v>
       </c>
       <c r="C69">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D69">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -8417,16 +8413,16 @@
         <v>25</v>
       </c>
       <c r="B71">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="E71">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -8443,10 +8439,10 @@
         <v>48</v>
       </c>
       <c r="C72">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D72">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -8469,7 +8465,7 @@
         <v>0.25</v>
       </c>
       <c r="D73">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -8486,13 +8482,13 @@
         <v>28</v>
       </c>
       <c r="B74">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C74">
         <v>0.5</v>
       </c>
       <c r="D74">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -8509,13 +8505,13 @@
         <v>29</v>
       </c>
       <c r="B75">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C75">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D75">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -8558,10 +8554,10 @@
         <v>25</v>
       </c>
       <c r="C77">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D77">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -8578,13 +8574,13 @@
         <v>32</v>
       </c>
       <c r="B78">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C78">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D78">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -8601,7 +8597,7 @@
         <v>33</v>
       </c>
       <c r="B79">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -8610,7 +8606,7 @@
         <v>25</v>
       </c>
       <c r="E79">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -8627,10 +8623,10 @@
         <v>25</v>
       </c>
       <c r="C80">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D80">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -8639,7 +8635,7 @@
         <v>1</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -8647,13 +8643,13 @@
         <v>35</v>
       </c>
       <c r="B81">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="E81">
         <v>0.5</v>
@@ -8719,10 +8715,10 @@
         <v>48</v>
       </c>
       <c r="C84">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D84">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -8739,7 +8735,7 @@
         <v>39</v>
       </c>
       <c r="B85">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -8748,7 +8744,7 @@
         <v>25</v>
       </c>
       <c r="E85">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -8808,7 +8804,7 @@
         <v>42</v>
       </c>
       <c r="B88">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -8817,7 +8813,7 @@
         <v>48</v>
       </c>
       <c r="E88">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -8837,7 +8833,7 @@
         <v>0.25</v>
       </c>
       <c r="D89">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -8854,7 +8850,7 @@
         <v>44</v>
       </c>
       <c r="B90">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -8863,7 +8859,7 @@
         <v>25</v>
       </c>
       <c r="E90">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F90">
         <v>1</v>
